--- a/Assets/Resources/ExcelData/Scene.xlsx
+++ b/Assets/Resources/ExcelData/Scene.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PallyGameClient\Assets\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PallyGameClient\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B19222-9CCA-4F08-9B66-EE4B2F817300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951C853-3816-4451-A2F9-3AAB4689BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31545" yWindow="3450" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneData" sheetId="1" r:id="rId1"/>
-    <sheet name="Configs" sheetId="2" r:id="rId2"/>
+    <sheet name="~Configs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Dragon</t>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -119,8 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -401,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -412,10 +430,9 @@
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,148 +442,126 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -578,9 +573,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D53AB4D4-C49F-4715-BDAC-7E390554F9A2}">
           <x14:formula1>
-            <xm:f>Configs!$A$2:$A$30</xm:f>
+            <xm:f>'~Configs'!$A$3:$A$31</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:D2</xm:sqref>
+          <xm:sqref>A3:C3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -590,165 +585,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D45985C-23FE-4472-9732-A031971BAB6B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="2">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="2">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="2">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="2">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="2">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="2">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="2">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
+      <c r="C12" s="2">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Assets/Resources/ExcelData/Scene.xlsx
+++ b/Assets/Resources/ExcelData/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PallyGameClient\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951C853-3816-4451-A2F9-3AAB4689BEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF25705-0763-4911-A8D2-2DCFF285BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragonUndead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,16 +427,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -547,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>19</v>
@@ -561,6 +569,17 @@
         <v>16</v>
       </c>
       <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>21</v>
       </c>
     </row>

--- a/Assets/Resources/ExcelData/Scene.xlsx
+++ b/Assets/Resources/ExcelData/Scene.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PallyGameClient\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF25705-0763-4911-A8D2-2DCFF285BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363052A-4B6C-40E8-8C64-37EBADBE10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SceneData" sheetId="1" r:id="rId1"/>
+    <sheet name="Scene" sheetId="1" r:id="rId1"/>
     <sheet name="~Configs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/ExcelData/Scene.xlsx
+++ b/Assets/Resources/ExcelData/Scene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\PallyGameClient\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5363052A-4B6C-40E8-8C64-37EBADBE10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F2A896-318D-4C19-B1E8-4EDCCC9473BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -34,51 +34,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Goblin</t>
-  </si>
-  <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Scavanger</t>
-  </si>
-  <si>
-    <t>Lurker</t>
-  </si>
-  <si>
-    <t>Sceleton</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Hydra</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Undead</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,15 +42,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undead</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragonUndead</t>
+    <t>数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SceneType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试主城场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试关卡场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试战斗场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|*|主城</t>
+  </si>
+  <si>
+    <t>2|*|关卡</t>
+  </si>
+  <si>
+    <t>3|*|战斗</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Short[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,16 +165,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -135,17 +209,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,160 +583,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -589,12 +657,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D53AB4D4-C49F-4715-BDAC-7E390554F9A2}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E010BD7-6E56-4A26-844D-37264E7415CF}">
           <x14:formula1>
-            <xm:f>'~Configs'!$A$3:$A$31</xm:f>
+            <xm:f>'~Configs'!$B$3:$B$16</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:C3</xm:sqref>
+          <xm:sqref>A2:C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04093BF5-D0AD-404C-8239-6C5FBF680473}">
+          <x14:formula1>
+            <xm:f>'~Configs'!$F$3:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -604,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D45985C-23FE-4472-9732-A031971BAB6B}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,175 +690,227 @@
     <col min="2" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>_xlfn.CONCAT($D3,"|*|", $E3)</f>
+        <v>1|*|主城</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f>_xlfn.CONCAT($D4,"|*|", $E4)</f>
+        <v>2|*|关卡</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>_xlfn.CONCAT($D5,"|*|", $E5)</f>
+        <v>3|*|战斗</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="2">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
